--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vigneshs/Vignesh-Personal-Folder/Projects-Repos/Friday-Insurance-Automation/Vignesh-S-FridayInsurance-UI-Automation/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF786EBB-04C2-D24A-BE09-3563980FB706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561BBAB-60BE-9C4F-A8BD-140357EC3EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" activeTab="3" xr2:uid="{F4D40EB4-B4EA-B147-930C-2AC563607595}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
